--- a/public/assets/files/format_import.xlsx
+++ b/public/assets/files/format_import.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Files\Out Project\PJK\SIAKAD\SI-AKADEMIK-SISWA\public\assets\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EDE9202-7632-4EFF-9E4D-8947B1D3A604}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38104504-0BBE-4FE9-A1C0-22CF9A9B8411}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{D381CD91-0EED-4E64-B7E7-31D5CC578443}"/>
   </bookViews>
@@ -45,14 +45,14 @@
     <t>TAHUN PELAJARAN</t>
   </si>
   <si>
-    <t>STATUS SISWA</t>
+    <t>NIS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -66,16 +66,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -83,13 +97,34 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -409,42 +444,43 @@
   <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="15.5703125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="30.5703125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="18.85546875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
